--- a/калькуляція компонентів на UPS.xlsx
+++ b/калькуляція компонентів на UPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D842921-7F26-408D-B5F8-374ABCA49A8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3696E07-0426-4755-A410-7A20D90517D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ECAP 2200/25V 1320 105'C</t>
   </si>
@@ -46,123 +46,141 @@
     <t>L78M05CDT-TR</t>
   </si>
   <si>
+    <t>Склотекстоліт FR-4 1,5мм односторонній 200х300мм</t>
+  </si>
+  <si>
+    <t>AMFGN1</t>
+  </si>
+  <si>
+    <t>B57164K0104J000(100k)</t>
+  </si>
+  <si>
+    <t>Плата EG8010</t>
+  </si>
+  <si>
+    <t>Радіатор + порізка</t>
+  </si>
+  <si>
+    <t>Сердечник DS270125 (KS106125) T26.9/14.7/11.2</t>
+  </si>
+  <si>
+    <t>Клема гвинтова PCB-10M3</t>
+  </si>
+  <si>
+    <t>IRF3205PBF</t>
+  </si>
+  <si>
+    <t>Втулки + прокладки TO-220</t>
+  </si>
+  <si>
+    <t>CAP/FILM 2.2/250V CL21</t>
+  </si>
+  <si>
+    <t>1350-F/UR Клейка стрічка (4,5мм х 66м), 25мкм</t>
+  </si>
+  <si>
+    <t>https://www.coretechua.com/izoljacijni-materiali/strichka/1350-f-ur-%D1%96zolyac%D1%96jna-str%D1%96chka-45mm-%D1%85-66m-</t>
+  </si>
+  <si>
+    <t>1350-F/UR Клейка стрічка (10мм х 66м), 25мкм</t>
+  </si>
+  <si>
+    <t>https://www.coretechua.com/izoljacijni-materiali/strichka/1350-f-ur-%D1%96zolyac%D1%96jna-str%D1%96chka-10mm-%D1%85-66m</t>
+  </si>
+  <si>
+    <t>https://voron.ua/uk/catalog/010706--serdechnik_ds270125_ks106125_t269147112_dmegc_hengdian_group_dmegc_magnetics_co_</t>
+  </si>
+  <si>
+    <t>https://voron.ua/uk/catalog/000481--klemma_vintovaya_pcb-10m3_k14</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/0287010-pxcn</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/b72220s0271k101-s20k275-epcos</t>
+  </si>
+  <si>
+    <t>BOX Z-39W /черн/</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/box-z-39-chern</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/csr-1-8-r010</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/ecap-2200-25v-1225-105-c-pbf</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/fdll4148</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/ww25nr025ftl</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/fr107-t-b</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/l78m05cdt-tr</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/fr4-200x300x1-5-steklotekstolit1-st</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/amfgn1</t>
+  </si>
+  <si>
+    <t>https://imrad.com.ua/ru/b57164k0104j000</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005004591915629.html?spm=a2g0o.productlist.0.0.6db63d544rnUsj&amp;algo_pvid=0225acc2-de67-4176-a129-7290385a7085&amp;algo_exp_id=0225acc2-de67-4176-a129-7290385a7085-6&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029754866612%22%7D&amp;pdp_npi=2%40dis%21UAH%21126.2%21111.13%21%21%21%21%21%40211675cf16710460003361457eb8d8%2112000029754866612%21sea&amp;curPageLogUid=DPXdTCUElrxD</t>
+  </si>
+  <si>
+    <t>Запчастини</t>
+  </si>
+  <si>
+    <t>Доставки</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>З ріла</t>
+  </si>
+  <si>
+    <t>Шунт (CSR-1.8-R010)</t>
+  </si>
+  <si>
+    <t>0287010.PXCN Запобіжник 10А</t>
+  </si>
+  <si>
+    <t>B72220S0271K101 (=S20K275) Варістор 375В</t>
+  </si>
+  <si>
+    <t>LRS-50-15 БЛОК ЖИВЛЕННЯ MEAN WELL 51ВТ, 15В, 3.4А</t>
+  </si>
+  <si>
+    <t>https://meanwell.kiev.ua/ua/p226650717-lrs-blok-pitaniya.html</t>
+  </si>
+  <si>
+    <t>XL4016 8A плата модуль понижайка</t>
+  </si>
+  <si>
+    <t>https://ivano-frankivsk.prom.ua/p860300431-ponizhayuschij-preobrazovatel-40v.html</t>
+  </si>
+  <si>
+    <t>грн</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
-7,67</t>
-  </si>
-  <si>
-    <t>Склотекстоліт FR-4 1,5мм односторонній 200х300мм</t>
-  </si>
-  <si>
-    <t>AMFGN1</t>
-  </si>
-  <si>
-    <t>B57164K0104J000(100k)</t>
-  </si>
-  <si>
-    <t>Плата EG8010</t>
-  </si>
-  <si>
-    <t>Радіатор + порізка</t>
-  </si>
-  <si>
-    <t>Сердечник DS270125 (KS106125) T26.9/14.7/11.2</t>
-  </si>
-  <si>
-    <t>Клема гвинтова PCB-10M3</t>
-  </si>
-  <si>
-    <t>IRF3205PBF</t>
-  </si>
-  <si>
-    <t>Втулки + прокладки TO-220</t>
-  </si>
-  <si>
-    <t>CAP/FILM 2.2/250V CL21</t>
-  </si>
-  <si>
-    <t>1350-F/UR Клейка стрічка (4,5мм х 66м), 25мкм</t>
-  </si>
-  <si>
-    <t>https://www.coretechua.com/izoljacijni-materiali/strichka/1350-f-ur-%D1%96zolyac%D1%96jna-str%D1%96chka-45mm-%D1%85-66m-</t>
-  </si>
-  <si>
-    <t>1350-F/UR Клейка стрічка (10мм х 66м), 25мкм</t>
-  </si>
-  <si>
-    <t>https://www.coretechua.com/izoljacijni-materiali/strichka/1350-f-ur-%D1%96zolyac%D1%96jna-str%D1%96chka-10mm-%D1%85-66m</t>
-  </si>
-  <si>
-    <t>https://voron.ua/uk/catalog/010706--serdechnik_ds270125_ks106125_t269147112_dmegc_hengdian_group_dmegc_magnetics_co_</t>
-  </si>
-  <si>
-    <t>https://voron.ua/uk/catalog/000481--klemma_vintovaya_pcb-10m3_k14</t>
-  </si>
-  <si>
-    <t>0287010.PXCN</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/0287010-pxcn</t>
-  </si>
-  <si>
-    <t>B72220S0271K101 (=S20K275)</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/b72220s0271k101-s20k275-epcos</t>
-  </si>
-  <si>
-    <t>BOX Z-39W /черн/</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/box-z-39-chern</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/csr-1-8-r010</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/ecap-2200-25v-1225-105-c-pbf</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/fdll4148</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/ww25nr025ftl</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/fr107-t-b</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/l78m05cdt-tr</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/fr4-200x300x1-5-steklotekstolit1-st</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/amfgn1</t>
-  </si>
-  <si>
-    <t>https://imrad.com.ua/ru/b57164k0104j000</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005004591915629.html?spm=a2g0o.productlist.0.0.6db63d544rnUsj&amp;algo_pvid=0225acc2-de67-4176-a129-7290385a7085&amp;algo_exp_id=0225acc2-de67-4176-a129-7290385a7085-6&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029754866612%22%7D&amp;pdp_npi=2%40dis%21UAH%21126.2%21111.13%21%21%21%21%21%40211675cf16710460003361457eb8d8%2112000029754866612%21sea&amp;curPageLogUid=DPXdTCUElrxD</t>
-  </si>
-  <si>
-    <t>Запчастини</t>
-  </si>
-  <si>
-    <t>Доставки</t>
-  </si>
-  <si>
-    <t>Всього</t>
-  </si>
-  <si>
-    <t>З ріла</t>
+8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +190,20 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -206,13 +238,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -494,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +553,9 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -529,8 +567,12 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
+      <c r="D3">
+        <f>C3*B3</f>
+        <v>48.68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,8 +585,12 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
+      <c r="D4">
+        <f t="shared" ref="D4:D28" si="0">C4*B4</f>
+        <v>10.4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -557,8 +603,12 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>41.14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,27 +621,34 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
+      <c r="D7" s="6">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>90</v>
@@ -599,13 +656,17 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>63.54</v>
@@ -613,13 +674,17 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>127.08</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>25.01</v>
@@ -627,13 +692,17 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>25.01</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>111</v>
@@ -641,13 +710,17 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -655,10 +728,14 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>55.89</v>
@@ -666,13 +743,17 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>55.89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>5.16</v>
@@ -680,13 +761,17 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>20.64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -694,10 +779,14 @@
       <c r="C15">
         <v>4</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -705,10 +794,14 @@
       <c r="C16">
         <v>2</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>6.93</v>
@@ -716,10 +809,14 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6.93</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>55.35</v>
@@ -727,13 +824,17 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>55.35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>123</v>
@@ -741,13 +842,17 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>5.57</v>
@@ -755,13 +860,17 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>11.14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>14.82</v>
@@ -769,13 +878,17 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>29.64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>365.59</v>
@@ -783,13 +896,17 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>30</v>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>365.59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
+      <c r="A23" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B23">
         <v>7.71</v>
@@ -797,42 +914,108 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>23.13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>453.18</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>906.36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>310</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26">
-        <f>SUM(B3:B23)</f>
-        <v>1122.6000000000001</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27">
-        <v>400</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B26:B27)</f>
-        <v>1522.6000000000001</v>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="3">
-        <v>761</v>
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B3:B27)</f>
+        <v>1885.7800000000002</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D3:D28)</f>
+        <v>3126.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D29:D30)</f>
+        <v>3615.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32">
+        <f>D31/2</f>
+        <v>1807.74</v>
       </c>
     </row>
   </sheetData>
@@ -844,18 +1027,21 @@
     <hyperlink ref="E20" r:id="rId5" xr:uid="{20EEB5EF-A39B-46F7-880B-3ECFCBFFB093}"/>
     <hyperlink ref="E21" r:id="rId6" xr:uid="{D9B46EF0-632A-42A5-80C9-FB52BEC9AD29}"/>
     <hyperlink ref="E22" r:id="rId7" xr:uid="{4881F6A9-547F-4089-8A21-F7F1B93DAA4B}"/>
-    <hyperlink ref="A23" r:id="rId8" xr:uid="{A95560E8-56C3-4792-B009-54E560ADC2C7}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{B6343E0F-F8D6-4A5C-88A4-630362D002BB}"/>
-    <hyperlink ref="E3" r:id="rId10" xr:uid="{293E165E-A063-44AB-8FFC-7330F0C48EDC}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{0A598A93-7879-40F0-9031-674F6EDDC444}"/>
-    <hyperlink ref="E5" r:id="rId12" xr:uid="{A2EAE0FD-57B2-4B97-922A-61313660BB12}"/>
-    <hyperlink ref="E6" r:id="rId13" xr:uid="{001D4823-08E1-4995-AD3B-19FBAB5A78EE}"/>
-    <hyperlink ref="E7" r:id="rId14" xr:uid="{1E118D23-C916-4374-8985-5F1E2FC6937F}"/>
-    <hyperlink ref="E8" r:id="rId15" xr:uid="{44B9035A-9A60-4F3E-AE84-0DC610F32C5F}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{2FC0901C-6027-496A-85B3-0E92ECED4427}"/>
-    <hyperlink ref="E10" r:id="rId17" xr:uid="{3688EDF2-CCDF-4013-A9AF-4AF516FE1978}"/>
-    <hyperlink ref="E11" r:id="rId18" display="https://www.aliexpress.com/item/1005004591915629.html?spm=a2g0o.productlist.0.0.6db63d544rnUsj&amp;algo_pvid=0225acc2-de67-4176-a129-7290385a7085&amp;algo_exp_id=0225acc2-de67-4176-a129-7290385a7085-6&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029754866612%22%7D&amp;pdp_npi=2%40dis%21UAH%21126.2%21111.13%21%21%21%21%21%40211675cf16710460003361457eb8d8%2112000029754866612%21sea&amp;curPageLogUid=DPXdTCUElrxD" xr:uid="{0A978A03-45CC-473F-905D-036E2168922E}"/>
+    <hyperlink ref="A23" r:id="rId8" display="https://imrad.com.ua/ru/csr-1-8-r010" xr:uid="{A95560E8-56C3-4792-B009-54E560ADC2C7}"/>
+    <hyperlink ref="E3" r:id="rId9" xr:uid="{293E165E-A063-44AB-8FFC-7330F0C48EDC}"/>
+    <hyperlink ref="E4" r:id="rId10" xr:uid="{0A598A93-7879-40F0-9031-674F6EDDC444}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{A2EAE0FD-57B2-4B97-922A-61313660BB12}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{001D4823-08E1-4995-AD3B-19FBAB5A78EE}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{1E118D23-C916-4374-8985-5F1E2FC6937F}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{44B9035A-9A60-4F3E-AE84-0DC610F32C5F}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{2FC0901C-6027-496A-85B3-0E92ECED4427}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{3688EDF2-CCDF-4013-A9AF-4AF516FE1978}"/>
+    <hyperlink ref="E11" r:id="rId17" display="https://www.aliexpress.com/item/1005004591915629.html?spm=a2g0o.productlist.0.0.6db63d544rnUsj&amp;algo_pvid=0225acc2-de67-4176-a129-7290385a7085&amp;algo_exp_id=0225acc2-de67-4176-a129-7290385a7085-6&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029754866612%22%7D&amp;pdp_npi=2%40dis%21UAH%21126.2%21111.13%21%21%21%21%21%40211675cf16710460003361457eb8d8%2112000029754866612%21sea&amp;curPageLogUid=DPXdTCUElrxD" xr:uid="{0A978A03-45CC-473F-905D-036E2168922E}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{B6343E0F-F8D6-4A5C-88A4-630362D002BB}"/>
+    <hyperlink ref="E24" r:id="rId19" xr:uid="{227213A1-3EB2-4ACB-9959-345A6412C584}"/>
+    <hyperlink ref="E25" r:id="rId20" xr:uid="{F4F62A55-10D0-409E-BE8B-A5766CC346E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
--- a/калькуляція компонентів на UPS.xlsx
+++ b/калькуляція компонентів на UPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3696E07-0426-4755-A410-7A20D90517D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141CEAE-0D9B-4533-ABE8-C5EC8E3B7ABD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ECAP 2200/25V 1320 105'C</t>
   </si>
@@ -134,18 +134,6 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005004591915629.html?spm=a2g0o.productlist.0.0.6db63d544rnUsj&amp;algo_pvid=0225acc2-de67-4176-a129-7290385a7085&amp;algo_exp_id=0225acc2-de67-4176-a129-7290385a7085-6&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029754866612%22%7D&amp;pdp_npi=2%40dis%21UAH%21126.2%21111.13%21%21%21%21%21%40211675cf16710460003361457eb8d8%2112000029754866612%21sea&amp;curPageLogUid=DPXdTCUElrxD</t>
-  </si>
-  <si>
-    <t>Запчастини</t>
-  </si>
-  <si>
-    <t>Доставки</t>
-  </si>
-  <si>
-    <t>Всього</t>
-  </si>
-  <si>
-    <t>З ріла</t>
   </si>
   <si>
     <t>Шунт (CSR-1.8-R010)</t>
@@ -532,7 +520,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -852,7 +840,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>5.57</v>
@@ -870,7 +858,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>14.82</v>
@@ -906,7 +894,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>7.71</v>
@@ -924,7 +912,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>453.18</v>
@@ -937,12 +925,12 @@
         <v>906.36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>310</v>
@@ -955,7 +943,7 @@
         <v>620</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,45 +966,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B3:B27)</f>
-        <v>1885.7800000000002</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D3:D28)</f>
-        <v>3126.48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D29:D30)</f>
-        <v>3615.48</v>
-      </c>
-    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
       <c r="B32" s="2"/>
-      <c r="D32">
-        <f>D31/2</f>
-        <v>1807.74</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/калькуляція компонентів на UPS.xlsx
+++ b/калькуляція компонентів на UPS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141CEAE-0D9B-4533-ABE8-C5EC8E3B7ABD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F8587-7507-4437-9928-33F1F29667D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ECAP 2200/25V 1320 105'C</t>
   </si>
@@ -162,6 +162,12 @@
   <si>
     <t xml:space="preserve">	
 8</t>
+  </si>
+  <si>
+    <t>Блок живлення 9В 2А(Для роутера)</t>
+  </si>
+  <si>
+    <t>Доставки</t>
   </si>
 </sst>
 </file>
@@ -193,24 +199,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,14 +227,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -517,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,442 +531,486 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>12.17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>C3*B3</f>
         <v>48.68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.04</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D28" si="0">C4*B4</f>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D26" si="0">C4*B4</f>
         <v>10.4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>20.57</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>41.14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1.25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>90</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>63.54</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>127.08</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>25.01</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>25.01</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>111</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>55.89</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>55.89</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>5.16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>20.64</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6.93</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>6.93</v>
       </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>55.35</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>55.35</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>123</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>5.57</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>11.14</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>14.82</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>29.64</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>365.59</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>365.59</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>7.71</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>23.13</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>453.18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>906.36</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>310</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1">
+        <v>160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>440</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
